--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1058766.683256547</v>
+        <v>1114111.21481863</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>1396887.814324549</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6559828.778296634</v>
+        <v>6805846.840759534</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>352.2335418161604</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>338.7677223258435</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -829,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>81.01098805494659</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>268.1367468860881</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>198.9926249238794</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.8834167598892</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900536</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1136,16 +1138,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>84.66175900360825</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>115.7646483667467</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1291,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>32.98066327132609</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>8.909245336631919</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>367.4440486341221</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>123.0738307553282</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.7139627068453</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>94.21878984361696</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>265.0221600795613</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1613,19 +1615,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>88.80998611176233</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480023263</v>
+        <v>24.3431845617046</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>275.2967631885898</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -3187,13 +3189,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719937</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>47.61404849749822</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>18.0567773522601</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>210.1409105078473</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790299</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>254.093120106908</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>116.6622110763726</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>195.15695646464</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3949,7 +3951,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571957</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.668178178967846</v>
       </c>
       <c r="V44" t="n">
-        <v>304.3982544195758</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.05677735225738</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.9668972495524</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="C2" t="n">
-        <v>140.1754408695924</v>
+        <v>1568.399499167668</v>
       </c>
       <c r="D2" t="n">
-        <v>108.3060600844409</v>
+        <v>1132.489714342112</v>
       </c>
       <c r="E2" t="n">
-        <v>78.57171928314017</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U2" t="n">
-        <v>2517.167459510636</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V2" t="n">
-        <v>2154.550509444463</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.695054855496</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.552591434807</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y2" t="n">
-        <v>922.2664677344602</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.057567691639</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001788</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.00656461795</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="N3" t="n">
-        <v>732.2102786755574</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="O3" t="n">
-        <v>732.2102786755574</v>
+        <v>2728.229639605616</v>
       </c>
       <c r="P3" t="n">
-        <v>1409.675863618363</v>
+        <v>3547.952806084815</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>3547.952806084815</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627538</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958108</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020107</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1133.802854344633</v>
+        <v>986.7693973212922</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>814.2076858045172</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>648.3296930060399</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>478.5716892567771</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2488.814354682931</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>2210.381353936037</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1923.425845806467</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1651.399441392759</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.62147306362</v>
+        <v>1406.007686726171</v>
       </c>
       <c r="Y4" t="n">
-        <v>1325.62147306362</v>
+        <v>1178.588016040279</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.4287717597048</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C5" t="n">
-        <v>785.3267029835322</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D5" t="n">
-        <v>349.4169181579767</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.012383954615</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.012383954615</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W5" t="n">
-        <v>2073.156929365648</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X5" t="n">
-        <v>1654.014465944959</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.728342244613</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O6" t="n">
-        <v>382.60715354234</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.3631500293809</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C7" t="n">
-        <v>795.3631500293809</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.3822505603506</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C8" t="n">
-        <v>194.2397777437739</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D8" t="n">
-        <v>108.7228494573009</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E8" t="n">
-        <v>78.98850865600016</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F8" t="n">
-        <v>55.16148310561195</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N8" t="n">
-        <v>732.2102786755574</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P8" t="n">
-        <v>2087.141448561168</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q8" t="n">
-        <v>2633.640234519763</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2653.582812821435</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T8" t="n">
-        <v>2653.582812821435</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="U8" t="n">
-        <v>2653.582812821435</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="V8" t="n">
-        <v>2290.965862755261</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="W8" t="n">
-        <v>1886.110408166295</v>
+        <v>3464.539722113752</v>
       </c>
       <c r="X8" t="n">
-        <v>1466.967944745605</v>
+        <v>3045.397258693063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1058.681821045258</v>
+        <v>2637.111134992716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N9" t="n">
-        <v>382.60715354234</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="O9" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="C10" t="n">
-        <v>570.2589983389613</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D10" t="n">
-        <v>570.2589983389613</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E10" t="n">
-        <v>570.2589983389613</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5519443007175</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>227.9606693265452</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>88.05849501691972</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>1171.617579497676</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1550.619818561768</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C11" t="n">
-        <v>1550.619818561768</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D11" t="n">
-        <v>1550.619818561768</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E11" t="n">
-        <v>1116.845073720063</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F11" t="n">
-        <v>745.6894690391318</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G11" t="n">
-        <v>344.2916376623957</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M11" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>2739.567230486873</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>2334.711775897907</v>
       </c>
       <c r="X11" t="n">
-        <v>1550.619818561768</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="Y11" t="n">
-        <v>1550.619818561768</v>
+        <v>2210.394775134949</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O12" t="n">
-        <v>732.2102786755574</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>828.3094050608356</v>
+        <v>1054.822753514904</v>
       </c>
       <c r="C13" t="n">
-        <v>655.7476935440606</v>
+        <v>882.2610419981285</v>
       </c>
       <c r="D13" t="n">
-        <v>489.8697007455832</v>
+        <v>716.3830491996512</v>
       </c>
       <c r="E13" t="n">
-        <v>320.1116969963205</v>
+        <v>546.6250454503884</v>
       </c>
       <c r="F13" t="n">
-        <v>143.4046429580766</v>
+        <v>369.9179914121446</v>
       </c>
       <c r="G13" t="n">
-        <v>143.4046429580766</v>
+        <v>204.3267164379723</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2576.23380884402</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T13" t="n">
-        <v>2330.354362422475</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U13" t="n">
-        <v>2051.92136167558</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V13" t="n">
-        <v>1764.965853546011</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W13" t="n">
-        <v>1492.939449132302</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="X13" t="n">
-        <v>1247.547694465715</v>
+        <v>1474.061042919782</v>
       </c>
       <c r="Y13" t="n">
-        <v>1020.128023779823</v>
+        <v>1246.641372233891</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>928.7969513748842</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C14" t="n">
-        <v>490.6544785583075</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D14" t="n">
-        <v>54.74469373275195</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E14" t="n">
-        <v>54.74469373275195</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M14" t="n">
-        <v>666.6506660403358</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N14" t="n">
-        <v>1344.116250983141</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>2021.581835925947</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T14" t="n">
-        <v>2517.167459510636</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U14" t="n">
-        <v>2257.945156827654</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V14" t="n">
-        <v>2168.238100149106</v>
+        <v>3302.508634112981</v>
       </c>
       <c r="W14" t="n">
-        <v>1763.382645560139</v>
+        <v>2897.653179524014</v>
       </c>
       <c r="X14" t="n">
-        <v>1763.382645560139</v>
+        <v>2478.510716103325</v>
       </c>
       <c r="Y14" t="n">
-        <v>1355.096521859792</v>
+        <v>2478.510716103325</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K15" t="n">
-        <v>245.8805072316101</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L15" t="n">
-        <v>245.8805072316101</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M15" t="n">
-        <v>923.3460921744155</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N15" t="n">
-        <v>1600.811677117221</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O15" t="n">
-        <v>1600.811677117221</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="P15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.8207098557364</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C16" t="n">
-        <v>570.2589983389613</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D16" t="n">
-        <v>404.381005540484</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6230017912213</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F16" t="n">
-        <v>57.91594775297747</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.432666470481</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.477158340911</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.450753927203</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.058999260615</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6393285747235</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,13 +5518,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>356.7918199602176</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>356.7918199602167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1431.851786213076</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5841,16 +5843,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5940,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1757.289095728803</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5977,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>3879.214741978675</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>5113.042013538981</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.042013538981</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6315,10 +6317,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6449,28 +6451,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6549,16 +6551,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>405.0384966383147</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6792,13 +6794,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.9010479080736</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.825451691258</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.946005269713</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2146.513004522818</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1859.557496393248</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.53109197954</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1342.139337312952</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1114.719666627061</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6941,28 +6943,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -7029,13 +7031,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>970.9960463903979</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>798.4343348736228</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>632.5563420751455</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>462.7983383258828</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876389</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134666</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134666</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7125,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2506.656904206056</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2228.223903459162</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1941.268395329592</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1669.241990915884</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1423.850236249296</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>1162.814665109385</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7263,10 +7265,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957668</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789917</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1385207805145</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312517</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6734629930079</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1291.397515878785</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C41" t="n">
-        <v>1291.397515878785</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D41" t="n">
-        <v>1173.556898629924</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E41" t="n">
-        <v>1173.556898629924</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F41" t="n">
-        <v>745.6894690391318</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="G41" t="n">
-        <v>344.2916376623957</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="N41" t="n">
-        <v>1409.675863618363</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2021.581835925947</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.012383954615</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="V41" t="n">
-        <v>2115.395433888441</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="W41" t="n">
-        <v>1710.539979299475</v>
+        <v>3063.141890737016</v>
       </c>
       <c r="X41" t="n">
-        <v>1291.397515878785</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y41" t="n">
-        <v>1291.397515878785</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="O42" t="n">
-        <v>382.60715354234</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>905.2407308096831</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C43" t="n">
-        <v>732.679019292908</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D43" t="n">
-        <v>566.8010264944307</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E43" t="n">
-        <v>397.0430227451681</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T43" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U43" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V43" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X43" t="n">
-        <v>1324.479020214562</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.05934952867</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.464213880837</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="C44" t="n">
-        <v>1179.464213880837</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D44" t="n">
-        <v>1179.464213880837</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E44" t="n">
-        <v>745.6894690391318</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F44" t="n">
-        <v>745.6894690391318</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G44" t="n">
-        <v>344.2916376623957</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>306.9256944654251</v>
       </c>
       <c r="M44" t="n">
-        <v>54.74469373275195</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3663.440555715551</v>
       </c>
       <c r="V44" t="n">
-        <v>2429.7617023754</v>
+        <v>3300.823605649377</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.906247786434</v>
+        <v>2895.96815106041</v>
       </c>
       <c r="X44" t="n">
-        <v>1605.763784365744</v>
+        <v>2895.96815106041</v>
       </c>
       <c r="Y44" t="n">
-        <v>1605.763784365744</v>
+        <v>2487.682027360063</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="M45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="N45" t="n">
-        <v>732.2102786755574</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1045.142905119309</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C46" t="n">
-        <v>872.5811936025335</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D46" t="n">
-        <v>706.7032008040562</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E46" t="n">
-        <v>536.9451970547935</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F46" t="n">
-        <v>360.2381430165498</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G46" t="n">
-        <v>194.6468680423774</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T46" t="n">
-        <v>2547.187862480948</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U46" t="n">
-        <v>2268.754861734053</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V46" t="n">
-        <v>1981.799353604483</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W46" t="n">
-        <v>1709.772949190775</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X46" t="n">
-        <v>1464.381194524188</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y46" t="n">
-        <v>1236.961523838296</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>707.3536805503163</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593995</v>
+        <v>99.20147744247754</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8459,22 +8461,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8541,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>99.20147744247754</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P12" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>618.0868407147311</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9401,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>205.9191540463125</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10197,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>305.8360165328637</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10367,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10449,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>305.8360165328637</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10686,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O41" t="n">
-        <v>618.0868407147309</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>331.1742018278667</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,19 +11302,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11385,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="O45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>56.14470666076221</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.8772080311542</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859683944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>63.43016517136634</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>157.0144147004974</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>270.1807944537494</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444073</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90.2200092229009</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>8.789189859684029</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>110.0349065174851</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.71657238081131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>33.279741449482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>29.9928329413658</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>314.8884759009273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>61.47312319151325</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,13 +25870,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>254.9619014771854</v>
       </c>
       <c r="V44" t="n">
-        <v>54.59252614593595</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403470.2380029981</v>
+        <v>487669.6617077775</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403470.2380029982</v>
+        <v>487669.6617077774</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619057.6613613889</v>
+        <v>619057.661361389</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619057.661361389</v>
+        <v>619057.6613613889</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619057.6613613889</v>
+        <v>619057.6613613891</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403470.2380029982</v>
+        <v>487669.6617077774</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403470.2380029982</v>
+        <v>487669.6617077774</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26319,16 @@
         <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.8557293379</v>
       </c>
       <c r="F2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.8557293379</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
         <v>302943.1108789775</v>
@@ -26344,16 +26346,16 @@
         <v>302943.1108789775</v>
       </c>
       <c r="M2" t="n">
+        <v>302943.1108789776</v>
+      </c>
+      <c r="N2" t="n">
         <v>302943.1108789775</v>
       </c>
-      <c r="N2" t="n">
-        <v>302943.1108789776</v>
-      </c>
       <c r="O2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.8557293379</v>
       </c>
       <c r="P2" t="n">
-        <v>197442.8824269992</v>
+        <v>238646.8557293379</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527206</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867426</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110551.3788292105</v>
+        <v>69760.40409482241</v>
       </c>
       <c r="C4" t="n">
-        <v>110551.3788292105</v>
+        <v>69760.40409482244</v>
       </c>
       <c r="D4" t="n">
-        <v>110551.3788292105</v>
+        <v>69760.40409482244</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="F4" t="n">
-        <v>525.5263635751431</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26456,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="P4" t="n">
-        <v>525.526363575143</v>
+        <v>635.1974440833578</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26491,7 +26493,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106827.8121016302</v>
+        <v>-157880.1743240784</v>
       </c>
       <c r="C6" t="n">
-        <v>122499.7628708828</v>
+        <v>149186.7959626392</v>
       </c>
       <c r="D6" t="n">
-        <v>122499.7628708829</v>
+        <v>149186.7959626392</v>
       </c>
       <c r="E6" t="n">
-        <v>155311.3888265325</v>
+        <v>182301.7494057314</v>
       </c>
       <c r="F6" t="n">
-        <v>155311.3888265325</v>
+        <v>182301.7494057314</v>
       </c>
       <c r="G6" t="n">
-        <v>61625.25208396101</v>
+        <v>125205.4962471303</v>
       </c>
       <c r="H6" t="n">
         <v>224418.5398824024</v>
@@ -26543,25 +26545,25 @@
         <v>224418.5398824024</v>
       </c>
       <c r="J6" t="n">
-        <v>45373.28179475048</v>
+        <v>-15320.98970434017</v>
       </c>
       <c r="K6" t="n">
         <v>224418.5398824024</v>
       </c>
       <c r="L6" t="n">
+        <v>224418.5398824023</v>
+      </c>
+      <c r="M6" t="n">
+        <v>224418.5398824025</v>
+      </c>
+      <c r="N6" t="n">
         <v>224418.5398824024</v>
       </c>
-      <c r="M6" t="n">
-        <v>224418.5398824024</v>
-      </c>
-      <c r="N6" t="n">
-        <v>224418.5398824025</v>
-      </c>
       <c r="O6" t="n">
-        <v>155311.3888265325</v>
+        <v>182301.7494057314</v>
       </c>
       <c r="P6" t="n">
-        <v>155311.3888265326</v>
+        <v>182301.7494057314</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.52750627225049</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>90.66927506744423</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>161.3002505071996</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,13 +27672,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>201.8142751191976</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.01701577190804</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.19697732171649</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>346.8889279736916</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27910,10 +27912,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>285.0422516763304</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.79268646174533</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.2362286424009</v>
       </c>
     </row>
     <row r="11">
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N2" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632068</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>707.3536805503163</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,7 +34871,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P6" t="n">
-        <v>684.3086716593995</v>
+        <v>99.20147744247754</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>331.1742018278667</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>99.20147744247754</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P12" t="n">
-        <v>331.1742018278667</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>618.0868407147311</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>645.4024255556852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36121,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1246.290173293239</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>205.9191540463125</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>305.8360165328637</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37087,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37169,7 +37171,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37324,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>305.8360165328637</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37406,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O41" t="n">
-        <v>618.0868407147309</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>331.1742018278667</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.9830129109515</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593995</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="O45" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1114111.21481863</v>
+        <v>1113318.303880769</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655642</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1396887.814324549</v>
+        <v>1396887.814324548</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6805846.840759534</v>
+        <v>6805846.840759535</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -667,7 +667,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>338.7677223258435</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>339.6875284287793</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361155</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>199.1362892344166</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>44.6487220680895</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -913,10 +913,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>198.9926249238794</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1062,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>119.8634463900536</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217563</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>115.7646483667467</v>
+        <v>116.1772698458789</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.909245336631919</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>273.627018809549</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>123.0738307553282</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>129.7139627068453</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>265.0221600795613</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,10 +1615,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>74.35414214777229</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.3431845617046</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>153.2006427344284</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>18.0567773522601</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790299</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>254.093120106908</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>136.2039896925778</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>195.15695646464</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>30.86433005490021</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.668178178967846</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.05677735225738</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2006.541971984244</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.399499167668</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D2" t="n">
-        <v>1132.489714342112</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E2" t="n">
-        <v>790.3000958311591</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F2" t="n">
-        <v>362.4326662403668</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G2" t="n">
-        <v>362.4326662403668</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>73.30251168358309</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="K2" t="n">
-        <v>73.30251168358309</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L2" t="n">
-        <v>73.30251168358309</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M2" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N2" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U2" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V2" t="n">
-        <v>3665.125584179154</v>
+        <v>2998.789533169857</v>
       </c>
       <c r="W2" t="n">
-        <v>3260.270129590188</v>
+        <v>2593.934078580891</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.127666169499</v>
+        <v>2174.791615160202</v>
       </c>
       <c r="Y2" t="n">
-        <v>2432.841542469152</v>
+        <v>1831.672899575576</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2508.057567691639</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>2212.390403001788</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>2129.00656461795</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>2001.885822700346</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>2027.949495860803</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>2027.949495860803</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>2027.949495860803</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L3" t="n">
-        <v>2027.949495860803</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M3" t="n">
-        <v>2027.949495860803</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>2027.949495860803</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O3" t="n">
-        <v>2728.229639605616</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P3" t="n">
-        <v>3547.952806084815</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>3547.952806084815</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>3601.670146627538</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>3295.154955958108</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>3096.037438020107</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>986.7693973212922</v>
+        <v>1736.54199039934</v>
       </c>
       <c r="C4" t="n">
-        <v>814.2076858045172</v>
+        <v>1563.980278882565</v>
       </c>
       <c r="D4" t="n">
-        <v>648.3296930060399</v>
+        <v>1563.980278882565</v>
       </c>
       <c r="E4" t="n">
-        <v>478.5716892567771</v>
+        <v>1563.980278882565</v>
       </c>
       <c r="F4" t="n">
-        <v>301.8646352185332</v>
+        <v>1442.619372785479</v>
       </c>
       <c r="G4" t="n">
-        <v>301.8646352185332</v>
+        <v>1277.028097811306</v>
       </c>
       <c r="H4" t="n">
-        <v>161.9624609089078</v>
+        <v>1137.125923501681</v>
       </c>
       <c r="I4" t="n">
-        <v>73.30251168358309</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="J4" t="n">
-        <v>159.882196848273</v>
+        <v>1135.045659441046</v>
       </c>
       <c r="K4" t="n">
-        <v>434.6406514194085</v>
+        <v>1409.804114012181</v>
       </c>
       <c r="L4" t="n">
-        <v>852.8505331873696</v>
+        <v>1828.013995780142</v>
       </c>
       <c r="M4" t="n">
-        <v>1312.334400368283</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N4" t="n">
-        <v>1754.593203525927</v>
+        <v>2729.7566661187</v>
       </c>
       <c r="O4" t="n">
-        <v>2174.262452751709</v>
+        <v>3149.425915344481</v>
       </c>
       <c r="P4" t="n">
-        <v>2521.769346722051</v>
+        <v>3496.932809314823</v>
       </c>
       <c r="Q4" t="n">
-        <v>2689.962121586383</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R4" t="n">
-        <v>2689.962121586383</v>
+        <v>3643.707762884527</v>
       </c>
       <c r="S4" t="n">
-        <v>2689.962121586383</v>
+        <v>3484.466394182524</v>
       </c>
       <c r="T4" t="n">
-        <v>2488.814354682931</v>
+        <v>3238.586947760979</v>
       </c>
       <c r="U4" t="n">
-        <v>2210.381353936037</v>
+        <v>2960.153947014084</v>
       </c>
       <c r="V4" t="n">
-        <v>1923.425845806467</v>
+        <v>2673.198438884515</v>
       </c>
       <c r="W4" t="n">
-        <v>1651.399441392759</v>
+        <v>2401.172034470806</v>
       </c>
       <c r="X4" t="n">
-        <v>1406.007686726171</v>
+        <v>2155.780279804219</v>
       </c>
       <c r="Y4" t="n">
-        <v>1178.588016040279</v>
+        <v>1928.360609118327</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2210.394775134949</v>
+        <v>1705.091249459329</v>
       </c>
       <c r="C5" t="n">
-        <v>1772.252302318372</v>
+        <v>1670.989180683157</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.342517492816</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E5" t="n">
-        <v>902.5677726511115</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F5" t="n">
-        <v>474.7003430603192</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G5" t="n">
-        <v>73.30251168358309</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L5" t="n">
-        <v>73.30251168358309</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M5" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N5" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179154</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V5" t="n">
-        <v>3665.125584179154</v>
+        <v>2959.634457613835</v>
       </c>
       <c r="W5" t="n">
-        <v>3464.122932740892</v>
+        <v>2554.779003024869</v>
       </c>
       <c r="X5" t="n">
-        <v>3044.980469320203</v>
+        <v>2135.63653960418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2636.694345619856</v>
+        <v>1727.350415903833</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="K6" t="n">
-        <v>73.30251168358309</v>
+        <v>780.099704914418</v>
       </c>
       <c r="L6" t="n">
-        <v>73.30251168358309</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="M6" t="n">
-        <v>73.30251168358309</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="N6" t="n">
-        <v>73.30251168358309</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="O6" t="n">
-        <v>980.4210937679237</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P6" t="n">
-        <v>1078.630556435977</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q6" t="n">
         <v>1619.369495068052</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>761.378527806567</v>
+        <v>982.6026685462017</v>
       </c>
       <c r="C7" t="n">
-        <v>588.816816289792</v>
+        <v>810.0409570294266</v>
       </c>
       <c r="D7" t="n">
-        <v>422.9388234913147</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="E7" t="n">
-        <v>301.8646352185332</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F7" t="n">
-        <v>301.8646352185332</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
         <v>301.8646352185332</v>
@@ -4722,7 +4722,7 @@
         <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
         <v>159.882196848273</v>
@@ -4749,28 +4749,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2509.302931589751</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T7" t="n">
-        <v>2263.423485168206</v>
+        <v>2484.647625907841</v>
       </c>
       <c r="U7" t="n">
-        <v>1984.990484421312</v>
+        <v>2206.214625160946</v>
       </c>
       <c r="V7" t="n">
-        <v>1698.034976291742</v>
+        <v>1919.259117031376</v>
       </c>
       <c r="W7" t="n">
-        <v>1426.008571878034</v>
+        <v>1647.232712617668</v>
       </c>
       <c r="X7" t="n">
-        <v>1180.616817211446</v>
+        <v>1401.840957951081</v>
       </c>
       <c r="Y7" t="n">
-        <v>953.1971465255542</v>
+        <v>1174.421287265189</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2210.811564507809</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C8" t="n">
-        <v>1772.669091691232</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.759306865676</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E8" t="n">
-        <v>902.9845620239714</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F8" t="n">
-        <v>475.1171324331792</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G8" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>73.30251168358309</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M8" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N8" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U8" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="V8" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="W8" t="n">
-        <v>3464.539722113752</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X8" t="n">
-        <v>3045.397258693063</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y8" t="n">
-        <v>2637.111134992716</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>980.4210937679237</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
         <v>1078.630556435977</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>979.7989607786893</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C10" t="n">
         <v>979.7989607786893</v>
@@ -4959,7 +4959,7 @@
         <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
         <v>159.882196848273</v>
@@ -4986,28 +4986,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2509.302931589751</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2263.423485168206</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U10" t="n">
-        <v>1984.990484421312</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V10" t="n">
-        <v>1698.034976291742</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W10" t="n">
-        <v>1426.008571878034</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.616817211446</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1171.617579497676</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2210.394775134949</v>
+        <v>1912.138643365838</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.252302318372</v>
+        <v>1473.996170549261</v>
       </c>
       <c r="D11" t="n">
-        <v>1336.342517492816</v>
+        <v>1473.996170549261</v>
       </c>
       <c r="E11" t="n">
-        <v>902.5677726511115</v>
+        <v>1040.221425707557</v>
       </c>
       <c r="F11" t="n">
-        <v>474.7003430603192</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G11" t="n">
-        <v>73.30251168358309</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M11" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N11" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>3361.40648323603</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>3102.184180553047</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V11" t="n">
-        <v>2739.567230486873</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W11" t="n">
-        <v>2334.711775897907</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.394775134949</v>
+        <v>2320.424767066185</v>
       </c>
       <c r="Y11" t="n">
-        <v>2210.394775134949</v>
+        <v>1912.138643365838</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
         <v>1078.630556435977</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1054.822753514904</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>882.2610419981285</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>716.3830491996512</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>546.6250454503884</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>369.9179914121446</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>204.3267164379723</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
         <v>159.882196848273</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.720752884379</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="T13" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1719.45279758637</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1474.061042919782</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1246.641372233891</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2210.811564507809</v>
+        <v>1423.85779479111</v>
       </c>
       <c r="C14" t="n">
-        <v>1772.669091691232</v>
+        <v>985.7153219745337</v>
       </c>
       <c r="D14" t="n">
-        <v>1336.759306865676</v>
+        <v>549.8055371489781</v>
       </c>
       <c r="E14" t="n">
-        <v>902.9845620239714</v>
+        <v>549.8055371489781</v>
       </c>
       <c r="F14" t="n">
-        <v>475.1171324331792</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N14" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O14" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P14" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179154</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179154</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V14" t="n">
-        <v>3302.508634112981</v>
+        <v>3082.44140698602</v>
       </c>
       <c r="W14" t="n">
-        <v>2897.653179524014</v>
+        <v>2677.585952397054</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.510716103325</v>
+        <v>2258.443488976365</v>
       </c>
       <c r="Y14" t="n">
-        <v>2478.510716103325</v>
+        <v>1850.157365276018</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>980.4210937679237</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
         <v>1619.369495068052</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
         <v>159.882196848273</v>
@@ -5463,25 +5463,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,13 +5518,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>356.7918199602176</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213077</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L20" t="n">
-        <v>475.2748675296863</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5791,13 +5791,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2404.930957497405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.773653488281</v>
+        <v>1134.430677610025</v>
       </c>
       <c r="M32" t="n">
-        <v>2178.821488698832</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135279</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705585</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,28 +6943,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.773653488281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903979</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736228</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751455</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258828</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876389</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134666</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>120.5000093134666</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109385</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,25 +7177,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1757.289095728803</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1809.413733131072</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C41" t="n">
-        <v>1371.271260314496</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="D41" t="n">
-        <v>935.3614754889402</v>
+        <v>645.0738334664084</v>
       </c>
       <c r="E41" t="n">
-        <v>501.5867306472354</v>
+        <v>211.2990886247035</v>
       </c>
       <c r="F41" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G41" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H41" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M41" t="n">
-        <v>306.9256944654251</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N41" t="n">
         <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U41" t="n">
-        <v>3467.997345325983</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V41" t="n">
-        <v>3467.997345325983</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W41" t="n">
-        <v>3063.141890737016</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X41" t="n">
-        <v>2643.999427316327</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y41" t="n">
-        <v>2235.71330361598</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
         <v>1078.630556435977</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.7985487605142</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C43" t="n">
-        <v>751.2368372437392</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D43" t="n">
-        <v>585.3588444452619</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E43" t="n">
-        <v>415.6008406959992</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F43" t="n">
-        <v>238.8937866577554</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
         <v>159.882196848273</v>
@@ -7593,28 +7593,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S43" t="n">
-        <v>2530.720752884379</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T43" t="n">
-        <v>2284.841306462834</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U43" t="n">
-        <v>2006.40830571594</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V43" t="n">
-        <v>1719.45279758637</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W43" t="n">
-        <v>1447.426393172662</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X43" t="n">
-        <v>1343.036838165393</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.617167479501</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2061.382456875156</v>
+        <v>1803.845182655778</v>
       </c>
       <c r="C44" t="n">
-        <v>2061.382456875156</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D44" t="n">
-        <v>1625.4726720496</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E44" t="n">
-        <v>1191.697927207895</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F44" t="n">
-        <v>763.830497617103</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G44" t="n">
-        <v>362.4326662403668</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>306.9256944654251</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
+        <v>306.9256944654255</v>
+      </c>
+      <c r="N44" t="n">
         <v>1214.044276549766</v>
       </c>
-      <c r="N44" t="n">
-        <v>2121.162858634106</v>
-      </c>
       <c r="O44" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3663.440555715551</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V44" t="n">
-        <v>3300.823605649377</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W44" t="n">
-        <v>2895.96815106041</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="X44" t="n">
-        <v>2895.96815106041</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="Y44" t="n">
-        <v>2487.682027360063</v>
+        <v>2230.144753140685</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>73.30251168358309</v>
+        <v>397.8970363655992</v>
       </c>
       <c r="K45" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>73.30251168358309</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>258.9073899567783</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
         <v>1078.630556435977</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>942.0377178031986</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C46" t="n">
-        <v>769.4760062864235</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D46" t="n">
-        <v>603.5980134879462</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E46" t="n">
-        <v>433.8400097386835</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F46" t="n">
-        <v>257.1329557004397</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G46" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
         <v>159.882196848273</v>
@@ -7830,28 +7830,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.962121586383</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T46" t="n">
-        <v>2444.082675164838</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U46" t="n">
-        <v>2165.649674417943</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V46" t="n">
-        <v>1878.694166288373</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W46" t="n">
-        <v>1606.667761874665</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X46" t="n">
-        <v>1361.276007208078</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.856336522186</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>707.3536805503163</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8221,16 +8221,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M5" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>847.7472627814486</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>99.20147744247754</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8458,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>99.20147744247754</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>645.4024255556852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160674</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318197</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,16 +11302,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>149.9617364853353</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>291.8772080311542</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.789189859683944</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.0144147004974</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>349.234613147112</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>90.2200092229009</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>69.71657238081131</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>29.9928329413658</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>287.3847656023065</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>61.47312319151325</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>402.8967180335107</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>254.9619014771854</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71657238081403</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>487669.6617077775</v>
+        <v>487669.6617077776</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>487669.6617077774</v>
+        <v>487669.6617077776</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619057.6613613889</v>
+        <v>619057.661361389</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619057.6613613891</v>
+        <v>619057.661361389</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487669.6617077774</v>
+        <v>487669.6617077776</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>487669.6617077774</v>
+        <v>487669.6617077776</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>238646.8557293379</v>
+        <v>238646.855729338</v>
       </c>
       <c r="F2" t="n">
-        <v>238646.8557293379</v>
+        <v>238646.855729338</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="H2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
       </c>
       <c r="J2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="K2" t="n">
         <v>302943.1108789775</v>
@@ -26355,7 +26355,7 @@
         <v>238646.8557293379</v>
       </c>
       <c r="P2" t="n">
-        <v>238646.8557293379</v>
+        <v>238646.855729338</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527206</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>239739.5295867426</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69760.40409482241</v>
+        <v>69760.40409482238</v>
       </c>
       <c r="C4" t="n">
-        <v>69760.40409482244</v>
+        <v>69760.40409482238</v>
       </c>
       <c r="D4" t="n">
-        <v>69760.40409482244</v>
+        <v>69760.4040948224</v>
       </c>
       <c r="E4" t="n">
-        <v>635.1974440833578</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="F4" t="n">
         <v>635.1974440833579</v>
@@ -26438,10 +26438,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26456,10 +26456,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>635.1974440833578</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="P4" t="n">
-        <v>635.1974440833578</v>
+        <v>635.1974440833579</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26493,7 +26493,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-157880.1743240784</v>
       </c>
       <c r="C6" t="n">
-        <v>149186.7959626392</v>
+        <v>149186.7959626393</v>
       </c>
       <c r="D6" t="n">
         <v>149186.7959626392</v>
       </c>
       <c r="E6" t="n">
-        <v>182301.7494057314</v>
+        <v>181998.9761309156</v>
       </c>
       <c r="F6" t="n">
-        <v>182301.7494057314</v>
+        <v>181998.9761309156</v>
       </c>
       <c r="G6" t="n">
-        <v>125205.4962471303</v>
+        <v>125182.2719077478</v>
       </c>
       <c r="H6" t="n">
-        <v>224418.5398824024</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="I6" t="n">
-        <v>224418.5398824024</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="J6" t="n">
-        <v>-15320.98970434017</v>
+        <v>-15344.21404372291</v>
       </c>
       <c r="K6" t="n">
-        <v>224418.5398824024</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="L6" t="n">
-        <v>224418.5398824023</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="M6" t="n">
-        <v>224418.5398824025</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="N6" t="n">
-        <v>224418.5398824024</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="O6" t="n">
-        <v>182301.7494057314</v>
+        <v>181998.9761309156</v>
       </c>
       <c r="P6" t="n">
-        <v>182301.7494057314</v>
+        <v>181998.9761309156</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>90.66927506744423</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>64.51573403456382</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>54.7926864617458</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>44.28436272291265</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>386.9019649092104</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>201.8142751191976</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.19697732171649</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>285.0422516763304</v>
+        <v>284.6296301971981</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.2362286424009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458551</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632068</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>707.3536805503163</v>
+        <v>187.4796750234295</v>
       </c>
       <c r="P3" t="n">
-        <v>828.0031984638367</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M5" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458551</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>847.7472627814486</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>99.20147744247754</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M8" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>99.20147744247754</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35418,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458551</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>645.4024255556852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35886,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160674</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318197</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>235.9830129109515</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>235.9830129109515</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>916.2813960447886</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
